--- a/coverage_95.xlsx
+++ b/coverage_95.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,13 @@
         <v>0.9782608695652171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9402173913043481</v>
+        <v>0.9673913043478261</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9615384615384621</v>
+        <v>0.9725274725274731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9630642954856361</v>
+        <v>0.972640218878249</v>
       </c>
     </row>
     <row r="8">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9779005524861881</v>
+        <v>0.9723756906077351</v>
       </c>
       <c r="C8" t="n">
         <v>0.951086956521739</v>
@@ -564,7 +564,7 @@
         <v>0.96195652173913</v>
       </c>
       <c r="E8" t="n">
-        <v>0.928571428571429</v>
+        <v>0.9340659340659341</v>
       </c>
       <c r="F8" t="n">
         <v>0.9548563611491111</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9889502762430941</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9673913043478261</v>
+        <v>0.9171270718232041</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.885869565217391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.956521739130435</v>
+        <v>0.875</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9615384615384621</v>
+        <v>0.8901098901098899</v>
       </c>
       <c r="F9" t="n">
-        <v>0.968536251709986</v>
+        <v>0.891928864569084</v>
       </c>
     </row>
     <row r="10">
@@ -598,20 +598,20 @@
           <t>TBATS_rf</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.834254143646409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9293478260869571</v>
+        <v>0.9239130434782611</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8043478260869571</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.648351648351648</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.80437756497948</v>
+        <v>0.8586956521739131</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.81532147742818</v>
       </c>
     </row>
     <row r="11">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9723756906077351</v>
+        <v>0.9668508287292821</v>
       </c>
       <c r="C11" t="n">
         <v>0.951086956521739</v>
@@ -630,7 +630,7 @@
         <v>0.96195652173913</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9340659340659341</v>
+        <v>0.9395604395604391</v>
       </c>
       <c r="F11" t="n">
         <v>0.9548563611491111</v>
@@ -642,20 +642,20 @@
           <t>ar</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0.7955801104972381</v>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.510869565217391</v>
+        <v>0.96195652173913</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6576086956521741</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="E12" t="n">
-        <v>0.412087912087912</v>
+        <v>0.9835164835164831</v>
       </c>
       <c r="F12" t="n">
-        <v>0.593707250341997</v>
+        <v>0.9753761969904241</v>
       </c>
     </row>
     <row r="13">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9779005524861881</v>
+        <v>0.9668508287292821</v>
       </c>
       <c r="C13" t="n">
-        <v>0.891304347826087</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.951086956521739</v>
+        <v>0.9402173913043481</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.8478260869565221</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8956043956043961</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9288645690834471</v>
+        <v>0.9138166894664841</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         <v>0.9779005524861881</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9673913043478261</v>
+        <v>0.9728260869565221</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9456521739130431</v>
+        <v>0.96195652173913</v>
       </c>
       <c r="E14" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9560439560439561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.964432284541724</v>
+        <v>0.9671682626538991</v>
       </c>
     </row>
     <row r="15">
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8011049723756911</v>
+        <v>0.9613259668508291</v>
       </c>
       <c r="C15" t="n">
-        <v>0.46195652173913</v>
+        <v>0.96195652173913</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6032608695652171</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4505494505494511</v>
+        <v>0.9340659340659341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.578659370725034</v>
+        <v>0.9534883720930231</v>
       </c>
     </row>
     <row r="16">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8508287292817681</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0.429347826086957</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0.429347826086957</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0.307692307692308</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0.5034199726402191</v>
+        <v>0.9668508287292821</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.96195652173913</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.956521739130435</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.928571428571428</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9534883720930231</v>
       </c>
     </row>
     <row r="17">
@@ -753,19 +753,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8011049723756911</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.456521739130435</v>
+        <v>0.9945652173913041</v>
       </c>
       <c r="D17" t="n">
-        <v>0.58695652173913</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.43956043956044</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.570451436388509</v>
+        <v>0.9986320109439121</v>
       </c>
     </row>
     <row r="18">
@@ -774,20 +774,64 @@
           <t>arima3_0_0</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>0.7955801104972381</v>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.510869565217391</v>
+        <v>0.96195652173913</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6576086956521741</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="E18" t="n">
-        <v>0.412087912087912</v>
+        <v>0.9835164835164831</v>
       </c>
       <c r="F18" t="n">
-        <v>0.593707250341997</v>
+        <v>0.9753761969904241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>arima1_0_2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.951086956521739</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.956521739130435</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9835164835164831</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.972640218878249</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>sarima212_001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9945652173913041</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.972640218878249</v>
       </c>
     </row>
   </sheetData>
